--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="H2">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="I2">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="J2">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.020124666666667</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N2">
-        <v>3.060374</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O2">
-        <v>0.8343329110379932</v>
+        <v>0.9278633407583023</v>
       </c>
       <c r="P2">
-        <v>0.8343329110379931</v>
+        <v>0.9278633407583025</v>
       </c>
       <c r="Q2">
-        <v>6.947481172817112</v>
+        <v>1.105737679369333</v>
       </c>
       <c r="R2">
-        <v>62.52733055535401</v>
+        <v>9.951639114323998</v>
       </c>
       <c r="S2">
-        <v>0.4062549048932846</v>
+        <v>0.2820374942660037</v>
       </c>
       <c r="T2">
-        <v>0.4062549048932845</v>
+        <v>0.2820374942660036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="H3">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="I3">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="J3">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.072477</v>
       </c>
       <c r="O3">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="P3">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="Q3">
-        <v>0.164533025363</v>
+        <v>0.085965485092</v>
       </c>
       <c r="R3">
-        <v>1.480797228267</v>
+        <v>0.773689365828</v>
       </c>
       <c r="S3">
-        <v>0.009621090998012196</v>
+        <v>0.02192698183400768</v>
       </c>
       <c r="T3">
-        <v>0.009621090998012196</v>
+        <v>0.02192698183400767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.810423666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="H4">
-        <v>20.431271</v>
+        <v>16.149422</v>
       </c>
       <c r="I4">
-        <v>0.4869218264300074</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="J4">
-        <v>0.4869218264300074</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1783993333333334</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N4">
-        <v>0.5351980000000001</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O4">
-        <v>0.1459080835615882</v>
+        <v>0.9278633407583023</v>
       </c>
       <c r="P4">
-        <v>0.1459080835615882</v>
+        <v>0.9278633407583025</v>
       </c>
       <c r="Q4">
-        <v>1.214975041850889</v>
+        <v>1.672794812744666</v>
       </c>
       <c r="R4">
-        <v>10.934775376658</v>
+        <v>15.055153314702</v>
       </c>
       <c r="S4">
-        <v>0.07104583053871066</v>
+        <v>0.4266752107758184</v>
       </c>
       <c r="T4">
-        <v>0.07104583053871065</v>
+        <v>0.4266752107758184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="H5">
         <v>16.149422</v>
       </c>
       <c r="I5">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="J5">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.020124666666667</v>
+        <v>0.024159</v>
       </c>
       <c r="N5">
-        <v>3.060374</v>
+        <v>0.072477</v>
       </c>
       <c r="O5">
-        <v>0.8343329110379932</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="P5">
-        <v>0.8343329110379931</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="Q5">
-        <v>5.491474578203111</v>
+        <v>0.130051295366</v>
       </c>
       <c r="R5">
-        <v>49.423271203828</v>
+        <v>1.170461658294</v>
       </c>
       <c r="S5">
-        <v>0.3211147215800484</v>
+        <v>0.03317182922806334</v>
       </c>
       <c r="T5">
-        <v>0.3211147215800483</v>
+        <v>0.03317182922806333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.383140666666666</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="H6">
-        <v>16.149422</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="I6">
-        <v>0.3848760097220061</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="J6">
-        <v>0.3848760097220061</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.024159</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N6">
-        <v>0.072477</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O6">
-        <v>0.01975900540041858</v>
+        <v>0.9278633407583023</v>
       </c>
       <c r="P6">
-        <v>0.01975900540041858</v>
+        <v>0.9278633407583025</v>
       </c>
       <c r="Q6">
-        <v>0.130051295366</v>
+        <v>0.859187591352333</v>
       </c>
       <c r="R6">
-        <v>1.170461658294</v>
+        <v>7.732688322170998</v>
       </c>
       <c r="S6">
-        <v>0.007604767154588674</v>
+        <v>0.2191506357164804</v>
       </c>
       <c r="T6">
-        <v>0.007604767154588674</v>
+        <v>0.2191506357164804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.383140666666666</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="H7">
-        <v>16.149422</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3848760097220061</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="J7">
-        <v>0.3848760097220061</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1783993333333334</v>
+        <v>0.024159</v>
       </c>
       <c r="N7">
-        <v>0.5351980000000001</v>
+        <v>0.072477</v>
       </c>
       <c r="O7">
-        <v>0.1459080835615882</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="P7">
-        <v>0.1459080835615882</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="Q7">
-        <v>0.9603487061728888</v>
+        <v>0.06679746874299999</v>
       </c>
       <c r="R7">
-        <v>8.643138355555999</v>
+        <v>0.6011772186869999</v>
       </c>
       <c r="S7">
-        <v>0.0561565209873691</v>
+        <v>0.01703784817962668</v>
       </c>
       <c r="T7">
-        <v>0.0561565209873691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.793123666666667</v>
-      </c>
-      <c r="H8">
-        <v>5.379371</v>
-      </c>
-      <c r="I8">
-        <v>0.1282021638479865</v>
-      </c>
-      <c r="J8">
-        <v>0.1282021638479865</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>1.020124666666667</v>
-      </c>
-      <c r="N8">
-        <v>3.060374</v>
-      </c>
-      <c r="O8">
-        <v>0.8343329110379932</v>
-      </c>
-      <c r="P8">
-        <v>0.8343329110379931</v>
-      </c>
-      <c r="Q8">
-        <v>1.829209682750444</v>
-      </c>
-      <c r="R8">
-        <v>16.462887144754</v>
-      </c>
-      <c r="S8">
-        <v>0.1069632845646604</v>
-      </c>
-      <c r="T8">
-        <v>0.1069632845646604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.793123666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.379371</v>
-      </c>
-      <c r="I9">
-        <v>0.1282021638479865</v>
-      </c>
-      <c r="J9">
-        <v>0.1282021638479865</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.024159</v>
-      </c>
-      <c r="N9">
-        <v>0.072477</v>
-      </c>
-      <c r="O9">
-        <v>0.01975900540041858</v>
-      </c>
-      <c r="P9">
-        <v>0.01975900540041858</v>
-      </c>
-      <c r="Q9">
-        <v>0.043320074663</v>
-      </c>
-      <c r="R9">
-        <v>0.389880671967</v>
-      </c>
-      <c r="S9">
-        <v>0.002533147247817714</v>
-      </c>
-      <c r="T9">
-        <v>0.002533147247817714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.793123666666667</v>
-      </c>
-      <c r="H10">
-        <v>5.379371</v>
-      </c>
-      <c r="I10">
-        <v>0.1282021638479865</v>
-      </c>
-      <c r="J10">
-        <v>0.1282021638479865</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1783993333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.5351980000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="P10">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="Q10">
-        <v>0.3198920667175556</v>
-      </c>
-      <c r="R10">
-        <v>2.879028600458</v>
-      </c>
-      <c r="S10">
-        <v>0.01870573203550844</v>
-      </c>
-      <c r="T10">
-        <v>0.01870573203550844</v>
+        <v>0.01703784817962667</v>
       </c>
     </row>
   </sheetData>
